--- a/zentao/functree3.xlsx
+++ b/zentao/functree3.xlsx
@@ -1041,7 +1041,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
@@ -1049,29 +1049,20 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s"/>
-      <c r="C1" t="s"/>
-      <c r="D1" t="s"/>
-      <c r="E1" t="s"/>
-      <c r="F1" t="s"/>
-    </row>
-    <row r="2" spans="1:6">
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" t="s"/>
-      <c r="D2" t="s"/>
-      <c r="E2" t="s"/>
-      <c r="F2" t="s"/>
-    </row>
-    <row r="3" spans="1:6">
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -1081,11 +1072,8 @@
       <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s"/>
-      <c r="E3" t="s"/>
-      <c r="F3" t="s"/>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -1095,11 +1083,8 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="D4" t="s"/>
-      <c r="E4" t="s"/>
-      <c r="F4" t="s"/>
-    </row>
-    <row r="5" spans="1:6">
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -1112,10 +1097,8 @@
       <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" t="s"/>
-      <c r="F5" t="s"/>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>0</v>
       </c>
@@ -1128,10 +1111,8 @@
       <c r="D6" t="s">
         <v>5</v>
       </c>
-      <c r="E6" t="s"/>
-      <c r="F6" t="s"/>
-    </row>
-    <row r="7" spans="1:6">
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>0</v>
       </c>
@@ -1141,13 +1122,8 @@
       <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" t="s"/>
-      <c r="F7" t="s"/>
-    </row>
-    <row r="8" spans="1:6">
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>0</v>
       </c>
@@ -1157,45 +1133,21 @@
       <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" t="s"/>
-      <c r="F8" t="s"/>
-    </row>
-    <row r="9" spans="1:6">
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B9" t="s">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s"/>
-      <c r="F9" t="s"/>
-    </row>
-    <row r="10" spans="1:6">
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" t="s"/>
-      <c r="F10" t="s"/>
-    </row>
-    <row r="11" spans="1:6">
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1205,13 +1157,8 @@
       <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" t="s"/>
-      <c r="F11" t="s"/>
-    </row>
-    <row r="12" spans="1:6">
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
         <v>8</v>
       </c>
@@ -1221,29 +1168,16 @@
       <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="D12" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s"/>
-      <c r="F12" t="s"/>
-    </row>
-    <row r="13" spans="1:6">
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
         <v>8</v>
       </c>
       <c r="B13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-    </row>
-    <row r="14" spans="1:6">
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>8</v>
       </c>
@@ -1253,13 +1187,8 @@
       <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="D14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" t="s"/>
-      <c r="F14" t="s"/>
-    </row>
-    <row r="15" spans="1:6">
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>8</v>
       </c>
@@ -1269,61 +1198,29 @@
       <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="D15" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" t="s"/>
-      <c r="F15" t="s"/>
-    </row>
-    <row r="16" spans="1:6">
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-      <c r="B16" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s"/>
-      <c r="F16" t="s"/>
-    </row>
-    <row r="17" spans="1:6">
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" t="s">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" t="s"/>
-      <c r="F17" t="s"/>
-    </row>
-    <row r="18" spans="1:6">
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" t="s">
         <v>15</v>
       </c>
       <c r="B18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" t="s"/>
-      <c r="F18" t="s"/>
-    </row>
-    <row r="19" spans="1:6">
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1333,13 +1230,8 @@
       <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" t="s"/>
-      <c r="F19" t="s"/>
-    </row>
-    <row r="20" spans="1:6">
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" t="s">
         <v>15</v>
       </c>
@@ -1352,10 +1244,8 @@
       <c r="D20" t="s">
         <v>19</v>
       </c>
-      <c r="E20" t="s"/>
-      <c r="F20" t="s"/>
-    </row>
-    <row r="21" spans="1:6">
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" t="s">
         <v>15</v>
       </c>
@@ -1368,10 +1258,8 @@
       <c r="D21" t="s">
         <v>20</v>
       </c>
-      <c r="E21" t="s"/>
-      <c r="F21" t="s"/>
-    </row>
-    <row r="22" spans="1:6">
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>15</v>
       </c>
@@ -1381,13 +1269,8 @@
       <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="D22" t="s">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s"/>
-      <c r="F22" t="s"/>
-    </row>
-    <row r="23" spans="1:6">
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -1400,10 +1283,8 @@
       <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="E23" t="s"/>
-      <c r="F23" t="s"/>
-    </row>
-    <row r="24" spans="1:6">
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -1416,10 +1297,8 @@
       <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="E24" t="s"/>
-      <c r="F24" t="s"/>
-    </row>
-    <row r="25" spans="1:6">
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -1435,9 +1314,8 @@
       <c r="E25" t="s">
         <v>24</v>
       </c>
-      <c r="F25" t="s"/>
-    </row>
-    <row r="26" spans="1:6">
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -1453,9 +1331,8 @@
       <c r="E26" t="s">
         <v>25</v>
       </c>
-      <c r="F26" t="s"/>
-    </row>
-    <row r="27" spans="1:6">
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -1475,7 +1352,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -1495,6 +1372,7 @@
         <v>27</v>
       </c>
     </row>
+    <row r="29" spans="1:7"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.511805555555556" header="0.511805555555556" left="0.75" right="0.75" top="1"/>
   <pageSetup orientation="portrait" paperSize="9"/>
